--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="31">
   <si>
     <t>NRO</t>
   </si>
@@ -107,10 +107,19 @@
     <t>[1M-JAVPR] JAVA - PROGRAMACIÓN</t>
   </si>
   <si>
-    <t xml:space="preserve"> 09/01/2020</t>
-  </si>
-  <si>
-    <t>MA y JU: 8-12 H</t>
+    <t>14.ENE.2020</t>
+  </si>
+  <si>
+    <t>16.ENE.2020</t>
+  </si>
+  <si>
+    <t>21.ENE.2020</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>MA y JU: 8-14 H</t>
   </si>
 </sst>
 </file>
@@ -283,26 +292,26 @@
     <xf numFmtId="14" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -647,7 +656,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -661,57 +670,59 @@
     <row r="1" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:6" ht="7.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17" t="s">
+      <c r="B6" s="17"/>
+      <c r="C6" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="14"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="11">
         <v>202001</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="12"/>
+        <v>24</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="F7" s="10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -730,205 +741,295 @@
       <c r="C9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>1</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>3</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>4</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>5</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>6</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>8</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>9</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>10</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>11</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>12</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>13</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>14</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
